--- a/subRE/metricasDistanciaREestesi.xlsx
+++ b/subRE/metricasDistanciaREestesi.xlsx
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +80,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -140,6 +153,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2185,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AJ182"/>
+  <dimension ref="A2:AT182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="AE161" workbookViewId="0">
+      <selection activeCell="AF169" sqref="AF169:AJ169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19188,7 +19207,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>-0.1204704736721928</v>
       </c>
@@ -19295,7 +19314,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>-0.1081517912864545</v>
       </c>
@@ -19402,7 +19421,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>-3.2731255445626203E-2</v>
       </c>
@@ -19509,7 +19528,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>4.1829599983069572E-2</v>
       </c>
@@ -19616,7 +19635,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>-6.5567176724619425E-2</v>
       </c>
@@ -19723,7 +19742,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>-3.9406058616802998E-2</v>
       </c>
@@ -19830,7 +19849,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>-4.1704921602353853E-2</v>
       </c>
@@ -19937,7 +19956,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>-5.6988000077892891E-2</v>
       </c>
@@ -20044,7 +20063,54 @@
         <v>254</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="9"/>
+      <c r="R169" s="9"/>
+      <c r="S169" s="9"/>
+      <c r="T169" s="9"/>
+      <c r="U169" s="9"/>
+      <c r="V169" s="9"/>
+      <c r="W169" s="9"/>
+      <c r="X169" s="9"/>
+      <c r="Y169" s="9"/>
+      <c r="Z169" s="9"/>
+      <c r="AA169" s="9"/>
+      <c r="AB169" s="9"/>
+      <c r="AC169" s="9"/>
+      <c r="AD169" s="9"/>
+      <c r="AE169" s="9"/>
+      <c r="AF169" s="9"/>
+      <c r="AG169" s="9"/>
+      <c r="AH169" s="9"/>
+      <c r="AI169" s="9"/>
+      <c r="AJ169" s="9"/>
+      <c r="AK169" s="9"/>
+      <c r="AL169" s="9"/>
+      <c r="AM169" s="9"/>
+      <c r="AN169" s="9"/>
+      <c r="AO169" s="9"/>
+      <c r="AP169" s="9"/>
+      <c r="AQ169" s="9"/>
+      <c r="AR169" s="9"/>
+      <c r="AS169" s="9"/>
+      <c r="AT169" s="9"/>
+    </row>
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <f>AVERAGE(B3:B168)</f>
         <v>0.26079833665716851</v>
@@ -20186,7 +20252,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B171" s="2">
         <f>_xlfn.STDEV.S(B3:B168)</f>
         <v>0.356386877433643</v>
@@ -20328,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>0</v>
       </c>
@@ -20336,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -20477,7 +20543,19 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AF169:AJ169"/>
+    <mergeCell ref="AK169:AO169"/>
+    <mergeCell ref="AP169:AT169"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="L169:P169"/>
+    <mergeCell ref="Q169:U169"/>
+    <mergeCell ref="V169:Z169"/>
+    <mergeCell ref="AA169:AE169"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>